--- a/biology/Botanique/Marrubium_supinum/Marrubium_supinum.xlsx
+++ b/biology/Botanique/Marrubium_supinum/Marrubium_supinum.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Marrubium supinum, qui a pour nom commun Marrube couché[1], est une espèce de plante de la famille des Lamiaceae et du genre Ballota.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Marrubium supinum, qui a pour nom commun Marrube couché, est une espèce de plante de la famille des Lamiaceae et du genre Ballota.
 </t>
         </is>
       </c>
@@ -511,7 +523,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Marrubium supinum est une plante herbacée vivace faisant un arbrisseau de 15 à  80 cm de haut, à base ligneuse et à tiges tomenteuses quadrangulaires et un peu laineuses.
 Les feuilles, de 2 à 6,5 cm de long et de 1 à 3 cm de large, sont suborbiculaires, orbiculaires ou ovales, très poilues sur la face supérieure, à l'exception des nervures, poilues sur la face inférieure, surtout sur les nervures, et avec un pétiole de 2 à 4 cm, très long sur les feuilles inférieures. L'inflorescence est constituée de verticilles globuleuses de 2 à 3 cm de diamètre, portant chacune 16 à 26 fleurs. Les bractées, de 2,5 à 3 cm de long et de 1 à 1,5 cm de large, pétiolées ou sessiles, sont elliptiques, arquées vers le bas et les bractéoles, de 6 à 10 mm, sont linéaires, fines, aiguës, presque pointues, poilues, recourbées vers le haut.
@@ -545,7 +559,9 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">L'espèce est présente en Espagne (moitié orientale) et, bien que plus rare, en Afrique du Nord (Maroc, Algérie et Tunisie).
 Elle pousse sur les sols caillouteux, les terres non cultivées, les bords des routes, les lieux plus ou moins nitrifiés, presque dans tous les substrat, jusqu'à 2 500 m d'altitude.
@@ -577,9 +593,11 @@
           <t>Parasitologie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La feuille a pour parasites Dibolia cynoglossi (sv), Aphis ballotae (sv), Leveillula duriaei. La racine a pour parasite Chamaesphecia mysiniformis[2].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La feuille a pour parasites Dibolia cynoglossi (sv), Aphis ballotae (sv), Leveillula duriaei. La racine a pour parasite Chamaesphecia mysiniformis.
 </t>
         </is>
       </c>
